--- a/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-is-archived.xlsx
+++ b/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:09:52+00:00</t>
+    <t>2023-08-21T11:48:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-is-archived.xlsx
+++ b/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T11:48:15+00:00</t>
+    <t>2023-08-31T15:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -189,10 +193,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -683,7 +683,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -705,7 +705,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -717,13 +717,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -774,13 +774,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -789,15 +789,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -820,13 +820,13 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -865,19 +865,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -889,7 +889,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -908,10 +908,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -985,10 +985,10 @@
         <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -1013,10 +1013,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1091,7 +1091,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>42</v>
